--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2021363.488069631</v>
+        <v>2018821.912926707</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10009295.05931665</v>
+        <v>10009295.05931664</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>338.7138576864072</v>
       </c>
       <c r="C11" t="n">
-        <v>246.5708440610881</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>310.6630576436096</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>337.9103860951884</v>
       </c>
       <c r="F11" t="n">
-        <v>362.8560617646381</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>366.9017416763801</v>
+        <v>299.7044037205088</v>
       </c>
       <c r="H11" t="n">
         <v>250.5877804102471</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>65.1677778111025</v>
+        <v>65.16777781110248</v>
       </c>
       <c r="T11" t="n">
         <v>159.8979861625468</v>
@@ -1427,16 +1427,16 @@
         <v>206.9751879818286</v>
       </c>
       <c r="V11" t="n">
-        <v>283.7322744930616</v>
+        <v>283.7322744930615</v>
       </c>
       <c r="W11" t="n">
-        <v>305.2209847403397</v>
+        <v>305.2209847403396</v>
       </c>
       <c r="X11" t="n">
         <v>325.7111167013957</v>
       </c>
       <c r="Y11" t="n">
-        <v>342.2179546789803</v>
+        <v>342.2179546789802</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>135.811996204864</v>
+        <v>135.8119962048639</v>
       </c>
       <c r="C13" t="n">
-        <v>123.2268371215545</v>
+        <v>123.2268371215544</v>
       </c>
       <c r="D13" t="n">
         <v>104.595489041139</v>
@@ -1540,13 +1540,13 @@
         <v>101.4010640458579</v>
       </c>
       <c r="G13" t="n">
-        <v>122.0058242819549</v>
+        <v>122.0058242819548</v>
       </c>
       <c r="H13" t="n">
-        <v>100.7350309372474</v>
+        <v>30.28182784131637</v>
       </c>
       <c r="I13" t="n">
-        <v>52.33243643276476</v>
+        <v>52.33243643276473</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.912168692974</v>
+        <v>44.91216869297398</v>
       </c>
       <c r="S13" t="n">
-        <v>75.29583825843707</v>
+        <v>145.7490413543685</v>
       </c>
       <c r="T13" t="n">
-        <v>175.5289652990959</v>
+        <v>175.5289652990958</v>
       </c>
       <c r="U13" t="n">
         <v>242.1918542285395</v>
       </c>
       <c r="V13" t="n">
-        <v>208.1176593467547</v>
+        <v>208.1176593467546</v>
       </c>
       <c r="W13" t="n">
-        <v>242.5030143595177</v>
+        <v>242.5030143595176</v>
       </c>
       <c r="X13" t="n">
         <v>181.6896714119638</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.5646693750215</v>
+        <v>174.5646693750214</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>338.7138576864072</v>
       </c>
       <c r="C14" t="n">
-        <v>321.2529077939342</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>105.0457957974033</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>337.9103860951885</v>
+        <v>337.9103860951884</v>
       </c>
       <c r="F14" t="n">
         <v>362.8560617646381</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>65.1677778111025</v>
+        <v>65.16777781110245</v>
       </c>
       <c r="T14" t="n">
         <v>159.8979861625468</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>206.9751879818286</v>
       </c>
       <c r="V14" t="n">
-        <v>283.7322744930616</v>
+        <v>283.7322744930615</v>
       </c>
       <c r="W14" t="n">
-        <v>305.2209847403397</v>
+        <v>185.8306426634401</v>
       </c>
       <c r="X14" t="n">
         <v>325.7111167013957</v>
       </c>
       <c r="Y14" t="n">
-        <v>342.2179546789803</v>
+        <v>342.2179546789802</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>135.811996204864</v>
+        <v>135.8119962048639</v>
       </c>
       <c r="C16" t="n">
-        <v>123.2268371215545</v>
+        <v>123.2268371215544</v>
       </c>
       <c r="D16" t="n">
         <v>104.595489041139</v>
@@ -1774,16 +1774,16 @@
         <v>102.4139786694958</v>
       </c>
       <c r="F16" t="n">
-        <v>101.4010640458579</v>
+        <v>30.94786094992719</v>
       </c>
       <c r="G16" t="n">
-        <v>51.55262118602394</v>
+        <v>122.0058242819548</v>
       </c>
       <c r="H16" t="n">
         <v>100.7350309372474</v>
       </c>
       <c r="I16" t="n">
-        <v>52.33243643276476</v>
+        <v>52.33243643276472</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.912168692974</v>
+        <v>44.91216869297395</v>
       </c>
       <c r="S16" t="n">
-        <v>145.7490413543686</v>
+        <v>145.7490413543685</v>
       </c>
       <c r="T16" t="n">
-        <v>175.5289652990959</v>
+        <v>175.5289652990958</v>
       </c>
       <c r="U16" t="n">
         <v>242.1918542285395</v>
       </c>
       <c r="V16" t="n">
-        <v>208.1176593467547</v>
+        <v>208.1176593467546</v>
       </c>
       <c r="W16" t="n">
-        <v>242.5030143595177</v>
+        <v>242.5030143595176</v>
       </c>
       <c r="X16" t="n">
         <v>181.6896714119638</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.5646693750215</v>
+        <v>174.5646693750214</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C17" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D17" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E17" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F17" t="n">
-        <v>359.9009091231189</v>
+        <v>13.91332762480429</v>
       </c>
       <c r="G17" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>62.21262516958336</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W17" t="n">
         <v>302.2658320988205</v>
       </c>
       <c r="X17" t="n">
-        <v>316.7744094091653</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y17" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C19" t="n">
         <v>120.2716844800353</v>
@@ -2008,19 +2008,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G19" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572828</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124554</v>
+        <v>49.3772837912456</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145487</v>
       </c>
       <c r="S19" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T19" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U19" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V19" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W19" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X19" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C20" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D20" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F20" t="n">
-        <v>359.9009091231189</v>
+        <v>321.6212326268954</v>
       </c>
       <c r="G20" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>62.21262516958333</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V20" t="n">
-        <v>241.651073118017</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W20" t="n">
         <v>302.2658320988205</v>
@@ -2147,7 +2147,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y20" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C22" t="n">
         <v>120.2716844800353</v>
@@ -2245,19 +2245,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G22" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572827</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124552</v>
+        <v>49.3772837912456</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145484</v>
       </c>
       <c r="S22" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T22" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U22" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V22" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W22" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X22" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C23" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D23" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E23" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F23" t="n">
         <v>359.9009091231189</v>
@@ -2333,7 +2333,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H23" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958333</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T23" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U23" t="n">
-        <v>204.0200353403095</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V23" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W23" t="n">
         <v>302.2658320988205</v>
@@ -2384,7 +2384,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y23" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C25" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D25" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797667</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433874</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G25" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572828</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I25" t="n">
-        <v>49.3772837912456</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145483</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S25" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T25" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U25" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V25" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W25" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X25" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231189</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958331</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2612,7 +2612,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
         <v>302.2658320988205</v>
@@ -2621,7 +2621,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="27">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124525</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145481</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335013</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404358</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
         <v>172.5738126575766</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145475</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3266,22 +3266,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C35" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E35" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H35" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958321</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T35" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U35" t="n">
         <v>204.0200353403094</v>
@@ -3326,10 +3326,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y35" t="n">
         <v>339.262802037461</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824775</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433863</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124548</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3478,7 +3478,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
         <v>205.1625067052354</v>
@@ -3487,7 +3487,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
         <v>171.6095167335022</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>335.7587050448879</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C38" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E38" t="n">
-        <v>334.9552334536691</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687278</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958316</v>
+        <v>62.21262516958336</v>
       </c>
       <c r="T38" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V38" t="n">
-        <v>280.7771218515422</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988203</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y38" t="n">
-        <v>339.2628020374609</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824775</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633446</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E40" t="n">
-        <v>99.4588260279765</v>
+        <v>99.45882602797668</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433857</v>
+        <v>98.44591140433876</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572811</v>
+        <v>97.7798782957283</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124542</v>
+        <v>49.37728379124561</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145466</v>
+        <v>41.95701605145483</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575765</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052353</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179983</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335021</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3806,7 +3806,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374619</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3916,7 +3916,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3983,7 +3983,7 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536696</v>
       </c>
       <c r="F44" t="n">
         <v>359.9009091231189</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1619.622707902852</v>
+        <v>1277.487498118602</v>
       </c>
       <c r="C11" t="n">
-        <v>1370.56124925529</v>
+        <v>1277.487498118602</v>
       </c>
       <c r="D11" t="n">
-        <v>1056.760180928411</v>
+        <v>963.6864297917232</v>
       </c>
       <c r="E11" t="n">
-        <v>1056.760180928411</v>
+        <v>622.362807473351</v>
       </c>
       <c r="F11" t="n">
-        <v>690.2389064186757</v>
+        <v>622.362807473351</v>
       </c>
       <c r="G11" t="n">
         <v>319.6310865435441</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3259.779783416139</v>
+        <v>3259.779783416137</v>
       </c>
       <c r="T11" t="n">
-        <v>3098.266666080233</v>
+        <v>3098.266666080231</v>
       </c>
       <c r="U11" t="n">
-        <v>2889.200819633941</v>
+        <v>2889.200819633939</v>
       </c>
       <c r="V11" t="n">
-        <v>2602.602562570242</v>
+        <v>2602.60256257024</v>
       </c>
       <c r="W11" t="n">
-        <v>2294.29853758</v>
+        <v>2294.298537579999</v>
       </c>
       <c r="X11" t="n">
-        <v>1965.297409598792</v>
+        <v>1965.297409598791</v>
       </c>
       <c r="Y11" t="n">
-        <v>1619.622707902852</v>
+        <v>1619.622707902851</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811068</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999798</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387287</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332731</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601582</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392777</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5133,37 +5133,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>780.3612684827029</v>
+        <v>709.1964168706505</v>
       </c>
       <c r="C13" t="n">
-        <v>655.8897158346681</v>
+        <v>584.7248642226157</v>
       </c>
       <c r="D13" t="n">
-        <v>550.2377067022045</v>
+        <v>479.0728550901521</v>
       </c>
       <c r="E13" t="n">
-        <v>446.7892433996835</v>
+        <v>375.6243917876311</v>
       </c>
       <c r="F13" t="n">
-        <v>344.3639261816452</v>
+        <v>273.199074569593</v>
       </c>
       <c r="G13" t="n">
-        <v>221.1257198362362</v>
+        <v>149.9608682241845</v>
       </c>
       <c r="H13" t="n">
-        <v>119.373163333966</v>
+        <v>119.3731633339659</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
         <v>155.2145330164216</v>
       </c>
       <c r="K13" t="n">
-        <v>402.7815001026006</v>
+        <v>402.7815001026005</v>
       </c>
       <c r="L13" t="n">
-        <v>762.9210826883993</v>
+        <v>762.9210826883991</v>
       </c>
       <c r="M13" t="n">
         <v>1150.657912425251</v>
@@ -5224,25 +5224,25 @@
         <v>2230.566994224313</v>
       </c>
       <c r="S13" t="n">
-        <v>2154.510591943063</v>
+        <v>2083.345740331011</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.208606792462</v>
+        <v>1906.043755180409</v>
       </c>
       <c r="U13" t="n">
-        <v>1732.570370197977</v>
+        <v>1661.405518585925</v>
       </c>
       <c r="V13" t="n">
-        <v>1522.350512271963</v>
+        <v>1451.18566065991</v>
       </c>
       <c r="W13" t="n">
-        <v>1277.397972514874</v>
+        <v>1206.233120902821</v>
       </c>
       <c r="X13" t="n">
-        <v>1093.873051896729</v>
+        <v>1022.708200284676</v>
       </c>
       <c r="Y13" t="n">
-        <v>917.5451030330705</v>
+        <v>846.3802514210181</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1828.688554349144</v>
+        <v>1398.083803246783</v>
       </c>
       <c r="C14" t="n">
-        <v>1504.190667688605</v>
+        <v>1398.083803246783</v>
       </c>
       <c r="D14" t="n">
         <v>1398.083803246783</v>
@@ -5264,64 +5264,64 @@
         <v>1056.760180928411</v>
       </c>
       <c r="F14" t="n">
-        <v>690.2389064186758</v>
+        <v>690.2389064186756</v>
       </c>
       <c r="G14" t="n">
         <v>319.6310865435441</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3259.779783416139</v>
+        <v>3259.779783416137</v>
       </c>
       <c r="T14" t="n">
-        <v>3098.266666080233</v>
+        <v>3098.266666080231</v>
       </c>
       <c r="U14" t="n">
-        <v>3098.266666080233</v>
+        <v>2889.200819633939</v>
       </c>
       <c r="V14" t="n">
-        <v>2811.668409016534</v>
+        <v>2602.602562570241</v>
       </c>
       <c r="W14" t="n">
-        <v>2503.364384026292</v>
+        <v>2414.89484270818</v>
       </c>
       <c r="X14" t="n">
-        <v>2174.363256045084</v>
+        <v>2085.893714726972</v>
       </c>
       <c r="Y14" t="n">
-        <v>1828.688554349144</v>
+        <v>1740.219013031033</v>
       </c>
     </row>
     <row r="15">
@@ -5349,25 +5349,25 @@
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
@@ -5419,28 +5419,28 @@
         <v>479.072855090153</v>
       </c>
       <c r="E16" t="n">
-        <v>375.6243917876319</v>
+        <v>375.624391787632</v>
       </c>
       <c r="F16" t="n">
-        <v>273.1990745695936</v>
+        <v>344.363926181645</v>
       </c>
       <c r="G16" t="n">
-        <v>221.1257198362362</v>
+        <v>221.125719836236</v>
       </c>
       <c r="H16" t="n">
-        <v>119.373163333966</v>
+        <v>119.3731633339659</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>155.2145330164217</v>
+        <v>155.2145330164216</v>
       </c>
       <c r="K16" t="n">
-        <v>402.7815001026004</v>
+        <v>402.7815001026005</v>
       </c>
       <c r="L16" t="n">
-        <v>762.9210826883993</v>
+        <v>762.9210826883992</v>
       </c>
       <c r="M16" t="n">
         <v>1150.657912425251</v>
@@ -5455,10 +5455,10 @@
         <v>2154.742740897096</v>
       </c>
       <c r="Q16" t="n">
-        <v>2275.932821186914</v>
+        <v>2275.932821186913</v>
       </c>
       <c r="R16" t="n">
-        <v>2230.566994224314</v>
+        <v>2230.566994224313</v>
       </c>
       <c r="S16" t="n">
         <v>2083.345740331012</v>
@@ -5467,13 +5467,13 @@
         <v>1906.04375518041</v>
       </c>
       <c r="U16" t="n">
-        <v>1661.405518585926</v>
+        <v>1661.405518585925</v>
       </c>
       <c r="V16" t="n">
         <v>1451.185660659911</v>
       </c>
       <c r="W16" t="n">
-        <v>1206.233120902823</v>
+        <v>1206.233120902822</v>
       </c>
       <c r="X16" t="n">
         <v>1022.708200284677</v>
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2018.472742224994</v>
+        <v>1301.367519464211</v>
       </c>
       <c r="C17" t="n">
-        <v>1696.959858232656</v>
+        <v>979.8546354718721</v>
       </c>
       <c r="D17" t="n">
-        <v>1386.143792573979</v>
+        <v>669.038569813195</v>
       </c>
       <c r="E17" t="n">
-        <v>1047.805172923808</v>
+        <v>330.6999501630239</v>
       </c>
       <c r="F17" t="n">
-        <v>684.2689010822735</v>
+        <v>316.646083875343</v>
       </c>
       <c r="G17" t="n">
-        <v>316.6460838753429</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5537,28 +5537,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>2898.155827638543</v>
       </c>
       <c r="V17" t="n">
-        <v>3325.605821609171</v>
+        <v>2614.542573243045</v>
       </c>
       <c r="W17" t="n">
-        <v>3020.28679928713</v>
+        <v>2309.223550921004</v>
       </c>
       <c r="X17" t="n">
-        <v>2700.312648368781</v>
+        <v>1983.207425607997</v>
       </c>
       <c r="Y17" t="n">
-        <v>2357.622949341043</v>
+        <v>1640.517726580259</v>
       </c>
     </row>
     <row r="18">
@@ -5583,31 +5583,31 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
         <v>2407.411984886741</v>
@@ -5647,67 +5647,67 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.4662498052943</v>
+        <v>759.4662498052948</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9796998254607</v>
+        <v>637.9796998254611</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611986</v>
       </c>
       <c r="E19" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268787</v>
       </c>
       <c r="F19" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770416</v>
       </c>
       <c r="G19" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998338</v>
       </c>
       <c r="H19" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K19" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328084</v>
       </c>
       <c r="L19" t="n">
-        <v>771.6978860337115</v>
+        <v>771.697886033711</v>
       </c>
       <c r="M19" t="n">
-        <v>1162.360316885667</v>
+        <v>1162.360316885669</v>
       </c>
       <c r="N19" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.27407884394</v>
       </c>
       <c r="O19" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.10906301676</v>
       </c>
       <c r="P19" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702826</v>
       </c>
       <c r="Q19" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107747</v>
       </c>
       <c r="R19" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813348</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588248</v>
       </c>
       <c r="T19" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105847</v>
       </c>
       <c r="U19" t="n">
         <v>1696.750338179563</v>
       </c>
       <c r="V19" t="n">
-        <v>1489.515482921749</v>
+        <v>1489.51548292175</v>
       </c>
       <c r="W19" t="n">
         <v>1247.547945832862</v>
@@ -5716,7 +5716,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y19" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874612</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1768.338774781834</v>
+        <v>1301.367519464211</v>
       </c>
       <c r="C20" t="n">
-        <v>1446.825890789496</v>
+        <v>979.8546354718731</v>
       </c>
       <c r="D20" t="n">
-        <v>1136.009825130819</v>
+        <v>979.8546354718731</v>
       </c>
       <c r="E20" t="n">
-        <v>797.6712054806479</v>
+        <v>641.5160158217021</v>
       </c>
       <c r="F20" t="n">
-        <v>434.1349336391136</v>
+        <v>316.646083875343</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5750,22 +5750,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296686</v>
@@ -5777,25 +5777,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.605821609171</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V20" t="n">
-        <v>3081.513828560669</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W20" t="n">
-        <v>2776.194806238627</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X20" t="n">
-        <v>2450.178680925621</v>
+        <v>1983.207425607998</v>
       </c>
       <c r="Y20" t="n">
-        <v>2107.488981897883</v>
+        <v>1640.51772658026</v>
       </c>
     </row>
     <row r="21">
@@ -5820,28 +5820,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052948</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254611</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611986</v>
       </c>
       <c r="E22" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268787</v>
       </c>
       <c r="F22" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770416</v>
       </c>
       <c r="G22" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998338</v>
       </c>
       <c r="H22" t="n">
-        <v>116.3881606657646</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218342</v>
@@ -5911,40 +5911,40 @@
         <v>158.1401341315255</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6327023328084</v>
+        <v>408.6327023328098</v>
       </c>
       <c r="L22" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337125</v>
       </c>
       <c r="M22" t="n">
-        <v>1162.360316885667</v>
+        <v>1162.360316885668</v>
       </c>
       <c r="N22" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843939</v>
       </c>
       <c r="O22" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016759</v>
       </c>
       <c r="P22" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q22" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R22" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813348</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588248</v>
       </c>
       <c r="T22" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105847</v>
       </c>
       <c r="U22" t="n">
         <v>1696.750338179563</v>
       </c>
       <c r="V22" t="n">
-        <v>1489.515482921749</v>
+        <v>1489.51548292175</v>
       </c>
       <c r="W22" t="n">
         <v>1247.547945832862</v>
@@ -5953,7 +5953,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y22" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874612</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C23" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D23" t="n">
         <v>1400.778593038484</v>
@@ -5975,52 +5975,52 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G23" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H23" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I23" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J23" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K23" t="n">
-        <v>924.7493799910142</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L23" t="n">
-        <v>1375.783593239423</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M23" t="n">
-        <v>1909.315497911347</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N23" t="n">
-        <v>2456.09431497013</v>
+        <v>2533.71485819569</v>
       </c>
       <c r="O23" t="n">
-        <v>2959.066785849467</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P23" t="n">
-        <v>3672.421873296413</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q23" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R23" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S23" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T23" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U23" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V23" t="n">
         <v>3346.282596468334</v>
@@ -6029,7 +6029,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X23" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y23" t="n">
         <v>2372.257749805548</v>
@@ -6063,16 +6063,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I24" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J24" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K24" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L24" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M24" t="n">
         <v>1227.062870902635</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C25" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D25" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F25" t="n">
         <v>350.0437186415473</v>
@@ -6139,19 +6139,19 @@
         <v>229.7905149643395</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I25" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J25" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K25" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L25" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M25" t="n">
         <v>1176.995117350172</v>
@@ -6163,16 +6163,16 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P25" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q25" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R25" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S25" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T25" t="n">
         <v>1953.038372570352</v>
@@ -6187,10 +6187,10 @@
         <v>1262.182746297368</v>
       </c>
       <c r="X25" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.2998821519669</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
@@ -6212,49 +6212,49 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467791</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455611</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.87963479397</v>
+        <v>1543.189242259776</v>
       </c>
       <c r="M26" t="n">
-        <v>1588.411539465894</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N26" t="n">
-        <v>2135.190356524677</v>
+        <v>2623.499963990483</v>
       </c>
       <c r="O26" t="n">
-        <v>3015.155006854131</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P26" t="n">
-        <v>3728.510094301078</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
         <v>3629.895850863832</v>
@@ -6300,7 +6300,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698003</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899667</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960312</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982166</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6418,7 +6418,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="29">
@@ -6449,49 +6449,49 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467791</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>771.2510705659141</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1543.189242259776</v>
       </c>
       <c r="M29" t="n">
-        <v>1755.817188486248</v>
+        <v>2305.516762226675</v>
       </c>
       <c r="N29" t="n">
-        <v>2302.59600554503</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O29" t="n">
-        <v>2805.568476424367</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P29" t="n">
-        <v>3518.923563871313</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3977.401766380301</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863832</v>
@@ -6503,10 +6503,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6537,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982166</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350172</v>
@@ -6652,7 +6652,7 @@
         <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6674,73 +6674,73 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467786</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>924.7493799910142</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L32" t="n">
-        <v>1375.783593239423</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>1909.315497911347</v>
+        <v>1863.465327102306</v>
       </c>
       <c r="N32" t="n">
-        <v>2456.09431497013</v>
+        <v>2410.244144161088</v>
       </c>
       <c r="O32" t="n">
-        <v>2959.066785849467</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P32" t="n">
-        <v>3672.421873296413</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6774,7 +6774,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873065</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257044</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913847</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415477</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.79051496434</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
         <v>786.3326864982171</v>
@@ -6877,13 +6877,13 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T34" t="n">
         <v>1953.038372570352</v>
@@ -6898,10 +6898,10 @@
         <v>1262.182746297368</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6911,73 +6911,73 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C35" t="n">
         <v>1711.594658697162</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467792</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J35" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K35" t="n">
-        <v>727.1188267890157</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L35" t="n">
-        <v>1178.153040037424</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M35" t="n">
-        <v>1711.684944709349</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N35" t="n">
-        <v>2258.463761768131</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O35" t="n">
-        <v>2761.436232647468</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P35" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W35" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y35" t="n">
         <v>2372.257749805548</v>
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C36" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D36" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E36" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F36" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G36" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H36" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J36" t="n">
         <v>174.8241863873065</v>
@@ -7059,7 +7059,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y36" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="37">
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E37" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F37" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J37" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M37" t="n">
         <v>1176.995117350173</v>
@@ -7108,37 +7108,37 @@
         <v>1564.908879308444</v>
       </c>
       <c r="O37" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X37" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="38">
@@ -7154,52 +7154,52 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467803</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K38" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L38" t="n">
-        <v>1222.285283814323</v>
+        <v>1339.011402386887</v>
       </c>
       <c r="M38" t="n">
-        <v>1755.817188486248</v>
+        <v>1872.543307058812</v>
       </c>
       <c r="N38" t="n">
-        <v>2302.59600554503</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O38" t="n">
-        <v>2805.568476424367</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T38" t="n">
         <v>3835.976694641922</v>
@@ -7208,10 +7208,10 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X38" t="n">
         <v>2714.947448833287</v>
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C39" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D39" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E39" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F39" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G39" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H39" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
@@ -7296,7 +7296,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y39" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="40">
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502697993</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899658</v>
+        <v>652.6145002899669</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257035</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913838</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415474</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643392</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973153</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982175</v>
+        <v>786.332686498218</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N40" t="n">
         <v>1564.908879308445</v>
@@ -7351,31 +7351,31 @@
         <v>2189.856749167331</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.972430572249</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.35535505275</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.03837257035</v>
+        <v>1953.038372570353</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644067</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V40" t="n">
-        <v>1504.150283386253</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297366</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X40" t="n">
-        <v>1081.642828347422</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519657</v>
+        <v>908.2998821519672</v>
       </c>
     </row>
     <row r="41">
@@ -7397,61 +7397,61 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J41" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557148</v>
       </c>
       <c r="K41" t="n">
-        <v>1092.155029011367</v>
+        <v>603.8454215455613</v>
       </c>
       <c r="L41" t="n">
-        <v>1543.189242259776</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M41" t="n">
-        <v>2076.7211469317</v>
+        <v>1588.411539465895</v>
       </c>
       <c r="N41" t="n">
-        <v>2623.499963990483</v>
+        <v>2156.722678745573</v>
       </c>
       <c r="O41" t="n">
-        <v>3126.47243486982</v>
+        <v>3036.687329075028</v>
       </c>
       <c r="P41" t="n">
-        <v>3539.850575768667</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q41" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y41" t="n">
         <v>2372.257749805548</v>
@@ -7464,64 +7464,64 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>956.1786549456147</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C42" t="n">
-        <v>781.7256256644877</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D42" t="n">
-        <v>632.7912160032365</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E42" t="n">
-        <v>473.553760997781</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F42" t="n">
-        <v>327.019203024666</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G42" t="n">
-        <v>190.6561028572846</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H42" t="n">
         <v>100.1542084951516</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873068</v>
+        <v>174.8241863873063</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O42" t="n">
-        <v>2111.547193875145</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P42" t="n">
-        <v>2422.046785351248</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q42" t="n">
         <v>2579.688342997847</v>
       </c>
       <c r="R42" t="n">
-        <v>2579.543989590363</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S42" t="n">
-        <v>2450.106103083843</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T42" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U42" t="n">
-        <v>2029.395255896114</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V42" t="n">
         <v>1794.243147664371</v>
@@ -7530,10 +7530,10 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X42" t="n">
-        <v>1332.154290730637</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y42" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="43">
@@ -7552,7 +7552,7 @@
         <v>549.9474938257041</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F43" t="n">
         <v>350.0437186415472</v>
@@ -7564,19 +7564,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K43" t="n">
-        <v>423.267502797314</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N43" t="n">
         <v>1564.908879308444</v>
@@ -7588,25 +7588,25 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V43" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X43" t="n">
         <v>1081.642828347423</v>
@@ -7628,49 +7628,49 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E44" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467791</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J44" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K44" t="n">
-        <v>924.7493799910142</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L44" t="n">
-        <v>1375.783593239423</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M44" t="n">
-        <v>1909.315497911347</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N44" t="n">
-        <v>2456.09431497013</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O44" t="n">
-        <v>2959.066785849467</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P44" t="n">
-        <v>3672.421873296413</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S44" t="n">
         <v>3994.504809309627</v>
@@ -7682,10 +7682,10 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X44" t="n">
         <v>2714.947448833287</v>
@@ -7722,7 +7722,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J45" t="n">
         <v>174.8241863873065</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899659</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257035</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913837</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415466</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643389</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J46" t="n">
         <v>172.7749345960314</v>
@@ -7810,19 +7810,19 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N46" t="n">
         <v>1564.908879308444</v>
       </c>
       <c r="O46" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
         <v>2313.972430572251</v>
@@ -7834,22 +7834,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V46" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
   </sheetData>
@@ -8453,25 +8453,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>207.0917554489375</v>
+        <v>207.0917554489374</v>
       </c>
       <c r="L8" t="n">
-        <v>219.6411280128609</v>
+        <v>219.6411280128607</v>
       </c>
       <c r="M8" t="n">
-        <v>212.4037444773051</v>
+        <v>212.4037444773049</v>
       </c>
       <c r="N8" t="n">
-        <v>211.1802466203544</v>
+        <v>211.1802466203542</v>
       </c>
       <c r="O8" t="n">
-        <v>212.8814793728454</v>
+        <v>212.8814793728453</v>
       </c>
       <c r="P8" t="n">
-        <v>216.5389132747571</v>
+        <v>216.538913274757</v>
       </c>
       <c r="Q8" t="n">
-        <v>211.2710458816647</v>
+        <v>211.2710458816646</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>121.6722392886285</v>
+        <v>121.6722392886284</v>
       </c>
       <c r="K9" t="n">
         <v>129.0129692144948</v>
       </c>
       <c r="L9" t="n">
-        <v>126.6834126868988</v>
+        <v>126.6834126868987</v>
       </c>
       <c r="M9" t="n">
-        <v>128.281175241861</v>
+        <v>128.2811752418609</v>
       </c>
       <c r="N9" t="n">
-        <v>117.1222094543797</v>
+        <v>117.1222094543796</v>
       </c>
       <c r="O9" t="n">
-        <v>129.5881775442801</v>
+        <v>129.58817754428</v>
       </c>
       <c r="P9" t="n">
-        <v>123.5342869155127</v>
+        <v>123.5342869155126</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.0028300142317</v>
+        <v>133.0028300142316</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,10 +8620,10 @@
         <v>131.7407984694293</v>
       </c>
       <c r="N10" t="n">
-        <v>120.6714018824963</v>
+        <v>120.6714018824962</v>
       </c>
       <c r="O10" t="n">
-        <v>131.9778425048106</v>
+        <v>131.9778425048105</v>
       </c>
       <c r="P10" t="n">
         <v>132.1843604371514</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>233.4533865158185</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>78.40458911672832</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>165.390262243154</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>21.74982042514725</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,13 +10112,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>231.1066821161363</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>21.13839585591414</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>108.735493551574</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>78.40458911672695</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>124.5185911550046</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10595,19 +10595,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>287.0017854473915</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>287.0017854473913</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>277.2206841544135</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11069,16 +11069,16 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>21.74982042514728</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>18.79169145623166</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11297,28 +11297,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>240.9710754359426</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>78.40458911672786</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>338.7138576864073</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>74.6820637328462</v>
+        <v>321.2529077939342</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>337.9103860951885</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>362.8560617646381</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>67.19733795587126</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>70.45320309593102</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>70.45320309593149</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>338.7138576864073</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>321.2529077939342</v>
       </c>
       <c r="D14" t="n">
-        <v>205.6172618462064</v>
+        <v>310.6630576436096</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23549,13 +23549,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>206.9751879818286</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>119.3903420768995</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23662,10 +23662,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>70.45320309593066</v>
       </c>
       <c r="G16" t="n">
-        <v>70.45320309593095</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23741,10 +23741,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>345.9875814983146</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,22 +23780,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958327</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>5.981554650711122</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23972,19 +23972,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>38.27967649622353</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,16 +24017,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958327</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>39.12604873352537</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.450218385609332e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
     </row>
     <row r="42">
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-3.481659405224491e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>769306.0143520288</v>
+        <v>769306.0143520287</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>769306.0143520288</v>
+        <v>769306.0143520287</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>774290.1133300401</v>
+        <v>774290.1133300399</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>774290.1133300401</v>
+        <v>774290.11333004</v>
       </c>
     </row>
     <row r="9">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>853864.1362264032</v>
+        <v>853864.1362264033</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>853864.1362264032</v>
+        <v>853864.1362264033</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614457.2540377786</v>
+        <v>614457.2540377787</v>
       </c>
       <c r="C2" t="n">
-        <v>614457.2540377789</v>
+        <v>614457.2540377787</v>
       </c>
       <c r="D2" t="n">
-        <v>614463.3543792162</v>
+        <v>614463.3543792161</v>
       </c>
       <c r="E2" t="n">
-        <v>569660.1831838731</v>
+        <v>569660.1831838735</v>
       </c>
       <c r="F2" t="n">
-        <v>569660.1831838732</v>
+        <v>569660.1831838735</v>
       </c>
       <c r="G2" t="n">
-        <v>573398.257417382</v>
+        <v>573398.2574173817</v>
       </c>
       <c r="H2" t="n">
-        <v>573398.2574173823</v>
+        <v>573398.2574173816</v>
       </c>
       <c r="I2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.327398213</v>
       </c>
       <c r="J2" t="n">
         <v>615781.3273982127</v>
       </c>
       <c r="K2" t="n">
+        <v>615781.3273982129</v>
+      </c>
+      <c r="L2" t="n">
+        <v>615781.3273982129</v>
+      </c>
+      <c r="M2" t="n">
+        <v>615781.3273982124</v>
+      </c>
+      <c r="N2" t="n">
+        <v>615781.3273982124</v>
+      </c>
+      <c r="O2" t="n">
         <v>615781.3273982125</v>
       </c>
-      <c r="L2" t="n">
-        <v>615781.3273982132</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>615781.327398213</v>
-      </c>
-      <c r="N2" t="n">
-        <v>615781.3273982125</v>
-      </c>
-      <c r="O2" t="n">
-        <v>615781.3273982131</v>
-      </c>
-      <c r="P2" t="n">
-        <v>615781.3273982126</v>
       </c>
     </row>
     <row r="3">
@@ -26369,40 +26369,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>21768.40754808854</v>
+        <v>21768.40754808873</v>
       </c>
       <c r="E3" t="n">
-        <v>1138563.07230445</v>
+        <v>1138563.072304449</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>2364.122113215387</v>
+        <v>2364.122113215125</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48646.25967902288</v>
+        <v>48646.25967902311</v>
       </c>
       <c r="J3" t="n">
-        <v>35215.98718165868</v>
+        <v>35215.9871816587</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2364.122113215416</v>
+        <v>2364.122113215296</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.5682920731</v>
+        <v>207188.5682920729</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>35215.98718165858</v>
+        <v>35215.98718165875</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,28 +26421,28 @@
         <v>430898.5094426759</v>
       </c>
       <c r="D4" t="n">
-        <v>424104.32716035</v>
+        <v>424104.3271603499</v>
       </c>
       <c r="E4" t="n">
-        <v>54753.55820860585</v>
+        <v>54753.55820860589</v>
       </c>
       <c r="F4" t="n">
-        <v>54753.55820860584</v>
+        <v>54753.55820860589</v>
       </c>
       <c r="G4" t="n">
         <v>57605.61344858623</v>
       </c>
       <c r="H4" t="n">
-        <v>57605.61344858623</v>
+        <v>57605.61344858621</v>
       </c>
       <c r="I4" t="n">
-        <v>80755.36360646592</v>
+        <v>80755.36360646595</v>
       </c>
       <c r="J4" t="n">
-        <v>80755.36360646591</v>
+        <v>80755.36360646594</v>
       </c>
       <c r="K4" t="n">
-        <v>80755.36360646592</v>
+        <v>80755.36360646594</v>
       </c>
       <c r="L4" t="n">
         <v>80755.36360646595</v>
@@ -26451,13 +26451,13 @@
         <v>80755.36360646595</v>
       </c>
       <c r="N4" t="n">
-        <v>80755.36360646598</v>
+        <v>80755.36360646589</v>
       </c>
       <c r="O4" t="n">
-        <v>80755.36360646592</v>
+        <v>80755.36360646594</v>
       </c>
       <c r="P4" t="n">
-        <v>80755.36360646594</v>
+        <v>80755.36360646595</v>
       </c>
     </row>
     <row r="5">
@@ -26473,19 +26473,19 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34181.71434720629</v>
+        <v>34181.7143472063</v>
       </c>
       <c r="E5" t="n">
-        <v>78007.05659436189</v>
+        <v>78007.05659436186</v>
       </c>
       <c r="F5" t="n">
-        <v>78007.05659436189</v>
+        <v>78007.05659436186</v>
       </c>
       <c r="G5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178173</v>
       </c>
       <c r="H5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="I5" t="n">
         <v>89377.94167480612</v>
@@ -26497,7 +26497,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
         <v>89377.94167480612</v>
@@ -26506,7 +26506,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="P5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>149931.1445951027</v>
+        <v>149926.7310172347</v>
       </c>
       <c r="C6" t="n">
-        <v>149931.1445951031</v>
+        <v>149926.7310172347</v>
       </c>
       <c r="D6" t="n">
-        <v>134408.9053235713</v>
+        <v>134404.5120801745</v>
       </c>
       <c r="E6" t="n">
-        <v>-701663.5039235444</v>
+        <v>-701817.2410709247</v>
       </c>
       <c r="F6" t="n">
-        <v>436899.5683809054</v>
+        <v>436745.8312335245</v>
       </c>
       <c r="G6" t="n">
-        <v>435173.0285337986</v>
+        <v>435031.7516338626</v>
       </c>
       <c r="H6" t="n">
-        <v>437537.1506470144</v>
+        <v>437395.8737470776</v>
       </c>
       <c r="I6" t="n">
-        <v>397001.762437918</v>
+        <v>397001.7624379178</v>
       </c>
       <c r="J6" t="n">
         <v>410432.034935282</v>
       </c>
       <c r="K6" t="n">
-        <v>445648.0221169405</v>
+        <v>445648.0221169408</v>
       </c>
       <c r="L6" t="n">
-        <v>443283.9000037257</v>
+        <v>443283.9000037255</v>
       </c>
       <c r="M6" t="n">
-        <v>238459.4538248678</v>
+        <v>238459.4538248674</v>
       </c>
       <c r="N6" t="n">
         <v>445648.0221169404</v>
       </c>
       <c r="O6" t="n">
-        <v>410432.0349352824</v>
+        <v>410432.0349352817</v>
       </c>
       <c r="P6" t="n">
-        <v>445648.0221169405</v>
+        <v>445648.0221169409</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="F2" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="G2" t="n">
+        <v>46.97513661859251</v>
+      </c>
+      <c r="H2" t="n">
+        <v>46.97513661859251</v>
+      </c>
+      <c r="I2" t="n">
+        <v>46.97513661859257</v>
+      </c>
+      <c r="J2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="I2" t="n">
-        <v>46.97513661859251</v>
-      </c>
-      <c r="J2" t="n">
-        <v>46.97513661859252</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="M2" t="n">
         <v>46.97513661859254</v>
       </c>
-      <c r="L2" t="n">
-        <v>46.97513661859258</v>
-      </c>
-      <c r="M2" t="n">
-        <v>46.97513661859262</v>
-      </c>
       <c r="N2" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859255</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>25.41808932138959</v>
+        <v>25.4180893213898</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26774,7 +26774,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="P3" t="n">
         <v>1089.776700593298</v>
@@ -26796,37 +26796,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
+        <v>1014.336461208614</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1014.336461208614</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1014.336461208614</v>
+      </c>
+      <c r="L4" t="n">
         <v>1014.336461208615</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
         <v>1014.336461208615</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
         <v>1014.336461208615</v>
       </c>
-      <c r="L4" t="n">
-        <v>1014.336461208614</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1014.336461208614</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1014.336461208614</v>
-      </c>
       <c r="O4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="P4" t="n">
         <v>1014.336461208615</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.955152641519234</v>
+        <v>2.955152641519128</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>44.01998397707335</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.95515264151927</v>
+        <v>2.95515264151912</v>
       </c>
       <c r="M2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.01998397707322</v>
+        <v>44.01998397707344</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>25.41808932138959</v>
+        <v>25.4180893213898</v>
       </c>
       <c r="E3" t="n">
-        <v>1064.358611271909</v>
+        <v>1064.358611271908</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>182.9350058063219</v>
+        <v>182.9350058063218</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.955152641519234</v>
+        <v>2.955152641519128</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>44.01998397707335</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27874,7 +27874,7 @@
         <v>206.5364689128667</v>
       </c>
       <c r="J8" t="n">
-        <v>3.276611732335974</v>
+        <v>3.276611732335903</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>111.7074193998389</v>
       </c>
       <c r="I9" t="n">
-        <v>87.51425548185934</v>
+        <v>87.51425548185932</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>96.7633202617602</v>
+        <v>96.76332026176017</v>
       </c>
       <c r="S9" t="n">
         <v>170.6676464974597</v>
@@ -28032,10 +28032,10 @@
         <v>154.072064444059</v>
       </c>
       <c r="J10" t="n">
-        <v>90.11858207319004</v>
+        <v>90.11858207319001</v>
       </c>
       <c r="K10" t="n">
-        <v>16.9441937680573</v>
+        <v>16.94419376805725</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.32391176416456</v>
+        <v>82.32391176416452</v>
       </c>
       <c r="R10" t="n">
-        <v>175.2324426921926</v>
+        <v>175.2324426921925</v>
       </c>
       <c r="S10" t="n">
         <v>223.2178033282984</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="C11" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="D11" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="E11" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="F11" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="G11" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="H11" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="T11" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="U11" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="V11" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="W11" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="X11" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="Y11" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="C13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="D13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="E13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="F13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="G13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="H13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="I13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="J13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="K13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="L13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="M13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="N13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="O13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="P13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="R13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="S13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="T13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="U13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="V13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="W13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="X13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="C14" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="D14" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="E14" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="F14" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="G14" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="H14" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="T14" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="U14" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="V14" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="W14" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="X14" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="Y14" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="C16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="D16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="E16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="F16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="G16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="H16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="I16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="J16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="K16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="L16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="M16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="N16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="O16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="P16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="R16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="S16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="T16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="U16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="V16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="W16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="X16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.01998397707333</v>
+        <v>44.01998397707339</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859495</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859387</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859395</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859114</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859352</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661858981</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>46.97513661859255</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30642,7 +30642,7 @@
         <v>46.97513661859255</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859222</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L43" t="n">
         <v>46.97513661859255</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1021832736538274</v>
+        <v>0.1021832736538283</v>
       </c>
       <c r="H8" t="n">
-        <v>1.04648445130726</v>
+        <v>1.046484451307269</v>
       </c>
       <c r="I8" t="n">
-        <v>3.939420657539185</v>
+        <v>3.939420657539218</v>
       </c>
       <c r="J8" t="n">
-        <v>8.672677622276543</v>
+        <v>8.672677622276614</v>
       </c>
       <c r="K8" t="n">
-        <v>12.99809559604306</v>
+        <v>12.99809559604317</v>
       </c>
       <c r="L8" t="n">
-        <v>16.12528695712638</v>
+        <v>16.12528695712652</v>
       </c>
       <c r="M8" t="n">
-        <v>17.94248874996764</v>
+        <v>17.94248874996779</v>
       </c>
       <c r="N8" t="n">
-        <v>18.23281697623658</v>
+        <v>18.23281697623673</v>
       </c>
       <c r="O8" t="n">
-        <v>17.21673204884133</v>
+        <v>17.21673204884147</v>
       </c>
       <c r="P8" t="n">
-        <v>14.69408248051246</v>
+        <v>14.69408248051258</v>
       </c>
       <c r="Q8" t="n">
-        <v>11.03464399278476</v>
+        <v>11.03464399278485</v>
       </c>
       <c r="R8" t="n">
-        <v>6.418770063657242</v>
+        <v>6.418770063657296</v>
       </c>
       <c r="S8" t="n">
-        <v>2.328501348386595</v>
+        <v>2.328501348386614</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4473072804196297</v>
+        <v>0.4473072804196335</v>
       </c>
       <c r="U8" t="n">
-        <v>0.008174661892306192</v>
+        <v>0.00817466189230626</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0546728713705361</v>
+        <v>0.05467287137053655</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5280248366575461</v>
+        <v>0.5280248366575505</v>
       </c>
       <c r="I9" t="n">
-        <v>1.882377369555739</v>
+        <v>1.882377369555754</v>
       </c>
       <c r="J9" t="n">
-        <v>5.165387378038238</v>
+        <v>5.165387378038281</v>
       </c>
       <c r="K9" t="n">
-        <v>8.828469759864157</v>
+        <v>8.82846975986423</v>
       </c>
       <c r="L9" t="n">
-        <v>11.87096709297539</v>
+        <v>11.87096709297549</v>
       </c>
       <c r="M9" t="n">
-        <v>13.85285868015733</v>
+        <v>13.85285868015744</v>
       </c>
       <c r="N9" t="n">
-        <v>14.2195026289536</v>
+        <v>14.21950262895372</v>
       </c>
       <c r="O9" t="n">
-        <v>13.00806690016435</v>
+        <v>13.00806690016446</v>
       </c>
       <c r="P9" t="n">
-        <v>10.44012049881755</v>
+        <v>10.44012049881763</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.978944071789837</v>
+        <v>6.978944071789894</v>
       </c>
       <c r="R9" t="n">
-        <v>3.394513890882936</v>
+        <v>3.394513890882964</v>
       </c>
       <c r="S9" t="n">
-        <v>1.015524606378159</v>
+        <v>1.015524606378167</v>
       </c>
       <c r="T9" t="n">
-        <v>0.220370038550538</v>
+        <v>0.2203700385505398</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003596899432272113</v>
+        <v>0.003596899432272143</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04583589877627631</v>
+        <v>0.04583589877627668</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4075228091199842</v>
+        <v>0.4075228091199876</v>
       </c>
       <c r="I10" t="n">
-        <v>1.378410483199292</v>
+        <v>1.378410483199303</v>
       </c>
       <c r="J10" t="n">
-        <v>3.240598043482735</v>
+        <v>3.240598043482761</v>
       </c>
       <c r="K10" t="n">
-        <v>5.325298057825555</v>
+        <v>5.325298057825599</v>
       </c>
       <c r="L10" t="n">
-        <v>6.814548078065662</v>
+        <v>6.814548078065719</v>
       </c>
       <c r="M10" t="n">
-        <v>7.184985478175748</v>
+        <v>7.184985478175807</v>
       </c>
       <c r="N10" t="n">
-        <v>7.014142582736905</v>
+        <v>7.014142582736963</v>
       </c>
       <c r="O10" t="n">
-        <v>6.478695947032221</v>
+        <v>6.478695947032274</v>
       </c>
       <c r="P10" t="n">
-        <v>5.543643611996179</v>
+        <v>5.543643611996225</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.838131487529828</v>
+        <v>3.83813148752986</v>
       </c>
       <c r="R10" t="n">
-        <v>2.060948684976932</v>
+        <v>2.060948684976949</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7987947086738332</v>
+        <v>0.7987947086738397</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1958442947713623</v>
+        <v>0.195844294771364</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002500139933251438</v>
+        <v>0.002500139933251458</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837935</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,7 +32789,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -33032,7 +33032,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837925</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33506,7 +33506,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837925</v>
@@ -33515,7 +33515,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33746,7 +33746,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34129,40 +34129,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34281,43 +34281,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,10 +35577,10 @@
         <v>391.6533633705571</v>
       </c>
       <c r="N13" t="n">
-        <v>388.8769301446134</v>
+        <v>388.8769301446133</v>
       </c>
       <c r="O13" t="n">
-        <v>346.3731141997131</v>
+        <v>346.373114199713</v>
       </c>
       <c r="P13" t="n">
         <v>278.9770551221837</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597691</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>89.59840059013956</v>
+        <v>89.59840059013959</v>
       </c>
       <c r="K16" t="n">
         <v>250.0676435213929</v>
       </c>
       <c r="L16" t="n">
-        <v>363.7773561472714</v>
+        <v>363.7773561472715</v>
       </c>
       <c r="M16" t="n">
         <v>391.6533633705571</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004602</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165868</v>
       </c>
       <c r="K19" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887905</v>
       </c>
       <c r="M19" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120787</v>
       </c>
       <c r="N19" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O19" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P19" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637028</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597692</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165871</v>
       </c>
       <c r="K22" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629134</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M22" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N22" t="n">
         <v>391.8320827861326</v>
       </c>
       <c r="O22" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P22" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
@@ -36367,7 +36367,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>785.75522192873</v>
       </c>
       <c r="O23" t="n">
         <v>508.0530008882191</v>
@@ -36376,7 +36376,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>329.1988939204478</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36437,7 +36437,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165873</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K25" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M25" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N25" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O25" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P25" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3693751564876</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
@@ -36607,16 +36607,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>673.4432631313731</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>272.5441252288667</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004592</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
@@ -36768,7 +36768,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36832,13 +36832,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>770.0277979463631</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
@@ -36847,13 +36847,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>80.75159439813892</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597722</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>647.6566093818008</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>329.1988939204464</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004592</v>
@@ -37163,7 +37163,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37306,7 +37306,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>461.7098777104051</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
@@ -37315,19 +37315,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>795.0547863356106</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37394,7 +37394,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
         <v>366.7325087887907</v>
@@ -37473,16 +37473,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412309</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>742.5918998397235</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>675.9826703737854</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597723</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.5535532316589</v>
+        <v>92.55355323165871</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629131</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861328</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637031</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564835</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>574.0516558380588</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P41" t="n">
-        <v>417.5536776756035</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629118</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -37950,7 +37950,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P43" t="n">
         <v>281.932207763703</v>
@@ -38017,28 +38017,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>793.2729108488541</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>329.1988939204473</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
